--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>116707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98503</v>
+        <v>98351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136976</v>
+        <v>137474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1131182092869155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09547438276279717</v>
+        <v>0.09532651939214923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1327639000946106</v>
+        <v>0.133247286237066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>198</v>
@@ -765,19 +765,19 @@
         <v>202758</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>179476</v>
+        <v>177789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>230904</v>
+        <v>228116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1541753510317531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1364717498551983</v>
+        <v>0.1351894041649442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1755773895921719</v>
+        <v>0.1734574045351112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>321</v>
@@ -786,19 +786,19 @@
         <v>319465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>288293</v>
+        <v>287108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354835</v>
+        <v>355207</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1361256873942447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1228433373675888</v>
+        <v>0.1223385120019322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1511973892646346</v>
+        <v>0.1513555812173332</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>915016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>894747</v>
+        <v>894249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>933220</v>
+        <v>933372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8868817907130845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8672360999053895</v>
+        <v>0.8667527137629341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9045256172372029</v>
+        <v>0.9046734806078508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1093</v>
@@ -836,19 +836,19 @@
         <v>1112355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1084209</v>
+        <v>1086997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1135637</v>
+        <v>1137324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8458246489682469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8244226104078279</v>
+        <v>0.8265425954648886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8635282501448017</v>
+        <v>0.8648105958350556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2008</v>
@@ -857,19 +857,19 @@
         <v>2027370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1992000</v>
+        <v>1991628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2058542</v>
+        <v>2059727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8638743126057553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8488026107353654</v>
+        <v>0.8486444187826671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8771566626324112</v>
+        <v>0.877661487998068</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>53782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41222</v>
+        <v>41014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70732</v>
+        <v>69928</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03177856757974942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02435707655844806</v>
+        <v>0.02423411186840456</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04179419135170886</v>
+        <v>0.0413191317162072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -982,19 +982,19 @@
         <v>52543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39844</v>
+        <v>40202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68868</v>
+        <v>67659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03309415912686191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02509591493519982</v>
+        <v>0.02532121370926362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04337696470180505</v>
+        <v>0.0426153354616384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -1003,19 +1003,19 @@
         <v>106325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87912</v>
+        <v>88324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127915</v>
+        <v>129913</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03241536218395807</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02680186398958936</v>
+        <v>0.02692738413769698</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03899765568090863</v>
+        <v>0.03960690193900749</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1638612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1621662</v>
+        <v>1622466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1651172</v>
+        <v>1651380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9682214324202506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9582058086482915</v>
+        <v>0.9586808682837928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.975642923441552</v>
+        <v>0.9757658881315955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1504</v>
@@ -1053,19 +1053,19 @@
         <v>1535130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1518805</v>
+        <v>1520014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1547829</v>
+        <v>1547471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669058408731381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9566230352981949</v>
+        <v>0.9573846645383616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9749040850648002</v>
+        <v>0.9746787862907363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3098</v>
@@ -1074,19 +1074,19 @@
         <v>3173742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3152152</v>
+        <v>3150154</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3192155</v>
+        <v>3191743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9675846378160419</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.961002344319092</v>
+        <v>0.9603930980609926</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9731981360104108</v>
+        <v>0.9730726158623031</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12467</v>
+        <v>13462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31480</v>
+        <v>32422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03656224700603963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02261028723329069</v>
+        <v>0.02441434297835919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05708971436453232</v>
+        <v>0.0587978104051002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11462</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5902</v>
+        <v>5927</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20002</v>
+        <v>19632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02405832504863768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01238886049905749</v>
+        <v>0.01244091592332746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04198517440787714</v>
+        <v>0.04120705231453487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1220,19 +1220,19 @@
         <v>31622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22379</v>
+        <v>22216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45134</v>
+        <v>44816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03076646914307118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02177330968377071</v>
+        <v>0.02161435495794517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04391204709502205</v>
+        <v>0.04360264754148361</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>531247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519928</v>
+        <v>518986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538941</v>
+        <v>537946</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9634377529939604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9429102856354675</v>
+        <v>0.9412021895948999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773897127667093</v>
+        <v>0.9755856570216409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>441</v>
@@ -1270,19 +1270,19 @@
         <v>464950</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456410</v>
+        <v>456780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>470510</v>
+        <v>470485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9759416749513623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9580148255921239</v>
+        <v>0.9587929476854652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876111395009425</v>
+        <v>0.9875590840766726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -1291,19 +1291,19 @@
         <v>996198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982686</v>
+        <v>983004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1005441</v>
+        <v>1005604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9692335308569289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9560879529049779</v>
+        <v>0.9563973524585163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9782266903162293</v>
+        <v>0.9783856450420548</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>190649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05820416966638154</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>259</v>
@@ -1416,19 +1416,19 @@
         <v>266762</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07894251104839838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>456</v>
@@ -1437,19 +1437,19 @@
         <v>457412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06873487891827212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3084876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3058127</v>
+        <v>3058679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3109782</v>
+        <v>3109372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9417958303336185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9336295670058841</v>
+        <v>0.9337981043823073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9493994920325209</v>
+        <v>0.9492743557970329</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3038</v>
@@ -1487,19 +1487,19 @@
         <v>3112435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3080520</v>
+        <v>3078770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3140944</v>
+        <v>3142382</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9210574889516017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9116131252098991</v>
+        <v>0.9110951319790208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9294941252321227</v>
+        <v>0.9299197979953604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6054</v>
@@ -1508,19 +1508,19 @@
         <v>6197310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6153456</v>
+        <v>6155383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6241033</v>
+        <v>6234612</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9312651210817279</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9246751743472407</v>
+        <v>0.924964719981721</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9378352617187006</v>
+        <v>0.9368704247470128</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>204684</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179059</v>
+        <v>179321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232171</v>
+        <v>233107</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.210008876009577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1837173836332696</v>
+        <v>0.1839862905149076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2382108439733743</v>
+        <v>0.2391711834638579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>307</v>
@@ -1872,19 +1872,19 @@
         <v>326373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>295355</v>
+        <v>296002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>358972</v>
+        <v>356523</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.244932985870412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2216552912780679</v>
+        <v>0.2221408921674844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2693979640680456</v>
+        <v>0.2675598243022289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>496</v>
@@ -1893,19 +1893,19 @@
         <v>531056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>493478</v>
+        <v>490732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>575582</v>
+        <v>570458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2301794253279585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2138916481322051</v>
+        <v>0.2127011480776425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2494783908717116</v>
+        <v>0.2472575632378805</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>769959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>742472</v>
+        <v>741536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>795584</v>
+        <v>795322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.789991123990423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7617891560266257</v>
+        <v>0.7608288165361421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8162826163667304</v>
+        <v>0.8160137094850924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>935</v>
@@ -1943,19 +1943,19 @@
         <v>1006125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>973526</v>
+        <v>975975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1037143</v>
+        <v>1036496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.755067014129588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7306020359319544</v>
+        <v>0.7324401756977709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7783447087219321</v>
+        <v>0.7778591078325156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1654</v>
@@ -1964,19 +1964,19 @@
         <v>1776085</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1731559</v>
+        <v>1736683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1813663</v>
+        <v>1816409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7698205746720415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7505216091282882</v>
+        <v>0.7527424367621195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7861083518677949</v>
+        <v>0.7872988519223574</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>115055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>93235</v>
+        <v>94173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139985</v>
+        <v>138134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05872524853704215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04758796663239574</v>
+        <v>0.04806666773697606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07144985782118085</v>
+        <v>0.0705047481179288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -2089,19 +2089,19 @@
         <v>92738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73449</v>
+        <v>73206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116235</v>
+        <v>114388</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05293704443898135</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04192666725072323</v>
+        <v>0.04178794588175438</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06634998839498343</v>
+        <v>0.06529575798423415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -2110,19 +2110,19 @@
         <v>207793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179462</v>
+        <v>180885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237047</v>
+        <v>239649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05599285832955372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04835882358027228</v>
+        <v>0.04874226215056705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06387576151835013</v>
+        <v>0.06457691318506403</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1844155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1819225</v>
+        <v>1821076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1865975</v>
+        <v>1865037</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9412747514629578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.928550142178819</v>
+        <v>0.929495251882072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9524120333676042</v>
+        <v>0.951933332263024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1551</v>
@@ -2160,19 +2160,19 @@
         <v>1659111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1635614</v>
+        <v>1637461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1678400</v>
+        <v>1678643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9470629555610186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9336500116050166</v>
+        <v>0.9347042420157659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9580733327492768</v>
+        <v>0.9582120541182456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3301</v>
@@ -2181,19 +2181,19 @@
         <v>3503266</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3474012</v>
+        <v>3471410</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3531597</v>
+        <v>3530174</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9440071416704463</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9361242384816499</v>
+        <v>0.9354230868149358</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9516411764197277</v>
+        <v>0.9512577378494329</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>32249</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20963</v>
+        <v>21053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46478</v>
+        <v>47448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06713928539838609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04364209363137733</v>
+        <v>0.0438310927305679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09676259923425443</v>
+        <v>0.09878169089122467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2306,19 +2306,19 @@
         <v>16457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9137</v>
+        <v>9820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27617</v>
+        <v>26340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03595950240846454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01996382454777377</v>
+        <v>0.02145617254094868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06034527316031526</v>
+        <v>0.0575536444531318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -2327,19 +2327,19 @@
         <v>48706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35391</v>
+        <v>35946</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67175</v>
+        <v>66784</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05192630909920302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03773066195223868</v>
+        <v>0.0383220344207204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07161619379905508</v>
+        <v>0.07119916413508164</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>448083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>433854</v>
+        <v>432884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459369</v>
+        <v>459279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9328607146016139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9032374007657453</v>
+        <v>0.9012183091087758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9563579063686225</v>
+        <v>0.9561689072694322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>397</v>
@@ -2377,19 +2377,19 @@
         <v>441197</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>430037</v>
+        <v>431314</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>448517</v>
+        <v>447834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9640404975915354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9396547268396847</v>
+        <v>0.9424463555468685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9800361754522262</v>
+        <v>0.9785438274590516</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>808</v>
@@ -2398,19 +2398,19 @@
         <v>889280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>870811</v>
+        <v>871202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>902595</v>
+        <v>902040</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.948073690900797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9283838062009455</v>
+        <v>0.9288008358649185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9622693380477613</v>
+        <v>0.9616779655792798</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>351988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>316205</v>
+        <v>316144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>392653</v>
+        <v>389963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1030957452785132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09261520399775694</v>
+        <v>0.09259727884179551</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1150065173997429</v>
+        <v>0.1142184260960082</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>400</v>
@@ -2523,19 +2523,19 @@
         <v>435567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>396006</v>
+        <v>394310</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>474248</v>
+        <v>477668</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.122972114664565</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1118030058842276</v>
+        <v>0.1113241828127548</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1338927491445143</v>
+        <v>0.1348581966259681</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>716</v>
@@ -2544,19 +2544,19 @@
         <v>787555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>731397</v>
+        <v>735367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>847501</v>
+        <v>843147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.113216539475461</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1051434476495517</v>
+        <v>0.1057141230364589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1218342319503064</v>
+        <v>0.1212083125498798</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3062196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3021531</v>
+        <v>3024221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3097979</v>
+        <v>3098040</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8969042547214868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.884993482600257</v>
+        <v>0.8857815739039918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9073847960022431</v>
+        <v>0.9074027211582045</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2883</v>
@@ -2594,19 +2594,19 @@
         <v>3106434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3067753</v>
+        <v>3064333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3145995</v>
+        <v>3147691</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8770278853354351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8661072508554855</v>
+        <v>0.8651418033740321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8881969941157722</v>
+        <v>0.8886758171872453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5763</v>
@@ -2615,19 +2615,19 @@
         <v>6168630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6108684</v>
+        <v>6113038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6224788</v>
+        <v>6220818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.886783460524539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8781657680496938</v>
+        <v>0.8787916874501202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8948565523504485</v>
+        <v>0.8942858769635411</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>155730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136146</v>
+        <v>134684</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178948</v>
+        <v>177229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2064434250885543</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1804820039180957</v>
+        <v>0.1785438112210114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2372226066243164</v>
+        <v>0.2349434380984637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -2979,19 +2979,19 @@
         <v>245685</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>217657</v>
+        <v>217126</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>272888</v>
+        <v>275235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2470041328405007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.218825898111252</v>
+        <v>0.218291791206237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2743530501936555</v>
+        <v>0.2767131152324566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>380</v>
@@ -3000,19 +3000,19 @@
         <v>401415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364937</v>
+        <v>366017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>436765</v>
+        <v>434989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2295102977312711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2086537756689532</v>
+        <v>0.2092715492437515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2497217270445214</v>
+        <v>0.248706202754864</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>598617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>575399</v>
+        <v>577118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>618201</v>
+        <v>619663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7935565749114457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7627773933756835</v>
+        <v>0.7650565619015363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8195179960819042</v>
+        <v>0.8214561887789885</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>678</v>
@@ -3050,19 +3050,19 @@
         <v>748975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>721772</v>
+        <v>719425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>777003</v>
+        <v>777534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7529958671594993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7256469498063446</v>
+        <v>0.7232868847675434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.781174101888748</v>
+        <v>0.781708208793763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1274</v>
@@ -3071,19 +3071,19 @@
         <v>1347592</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1312242</v>
+        <v>1314018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1384070</v>
+        <v>1382990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7704897022687289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7502782729554786</v>
+        <v>0.7512937972451359</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7913462243310462</v>
+        <v>0.7907284507562482</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>134057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112730</v>
+        <v>112213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158572</v>
+        <v>158577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06456255043918335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05429158403504796</v>
+        <v>0.05404240631073174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07636939226469157</v>
+        <v>0.07637152182426261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -3196,19 +3196,19 @@
         <v>127774</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107772</v>
+        <v>104663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153688</v>
+        <v>152180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06426289857741363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05420323616274376</v>
+        <v>0.05263962441493199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0772964258937251</v>
+        <v>0.07653788686804196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -3217,19 +3217,19 @@
         <v>261831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232138</v>
+        <v>229176</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296298</v>
+        <v>297253</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06441597135329247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0571110078394961</v>
+        <v>0.05638214555870973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0728957099854363</v>
+        <v>0.07313072439774815</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1942328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1917813</v>
+        <v>1917808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1963655</v>
+        <v>1964172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9354374495608166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9236306077353081</v>
+        <v>0.9236284781757372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.945708415964952</v>
+        <v>0.9459575936892682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1796</v>
@@ -3267,19 +3267,19 @@
         <v>1860526</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1834612</v>
+        <v>1836120</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1880528</v>
+        <v>1883637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9357371014225864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9227035741062749</v>
+        <v>0.923462113131958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9457967638372562</v>
+        <v>0.9473603755850679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3623</v>
@@ -3288,19 +3288,19 @@
         <v>3802854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3768387</v>
+        <v>3767432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3832547</v>
+        <v>3835509</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9355840286467075</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9271042900145637</v>
+        <v>0.9268692756022519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9428889921605039</v>
+        <v>0.9436178544412902</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>26641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17352</v>
+        <v>16735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38862</v>
+        <v>39469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04871372647630504</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03172903915755017</v>
+        <v>0.03060108257369513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07106021673752681</v>
+        <v>0.07217034822697323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>16492</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9205</v>
+        <v>9341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28024</v>
+        <v>27953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03003202814517435</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01676338065017303</v>
+        <v>0.01701062507025926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05103249611425845</v>
+        <v>0.05090384317964931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3434,19 +3434,19 @@
         <v>43133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31375</v>
+        <v>30926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59520</v>
+        <v>60754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03935366645191733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02862590736802924</v>
+        <v>0.02821655555485205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05430545786036269</v>
+        <v>0.05543088505416707</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>520245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508024</v>
+        <v>507417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529534</v>
+        <v>530151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.951286273523695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9289397832624731</v>
+        <v>0.9278296517730267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9682709608424498</v>
+        <v>0.9693989174263049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>532648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>521116</v>
+        <v>521187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539935</v>
+        <v>539799</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9699679718548256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9489675038857417</v>
+        <v>0.9490961568203506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.983236619349827</v>
+        <v>0.9829893749297407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>990</v>
@@ -3505,19 +3505,19 @@
         <v>1052894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1036507</v>
+        <v>1035273</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1064652</v>
+        <v>1065101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9606463335480827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9456945421396372</v>
+        <v>0.9445691149458353</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9713740926319707</v>
+        <v>0.9717834444451481</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>316428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>283556</v>
+        <v>283865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>354152</v>
+        <v>350658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09368362947690438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0839515098664307</v>
+        <v>0.08404289723531638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1048526516999911</v>
+        <v>0.1038181213543639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -3630,19 +3630,19 @@
         <v>389951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>350981</v>
+        <v>352797</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>430919</v>
+        <v>431883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1104019804022993</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0993687895156274</v>
+        <v>0.09988310768073637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1220008113436073</v>
+        <v>0.1222738151960533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>654</v>
@@ -3651,19 +3651,19 @@
         <v>706378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>652797</v>
+        <v>655185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>756102</v>
+        <v>755242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1022296935271202</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09447525762137163</v>
+        <v>0.09482078335147102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1094258832163804</v>
+        <v>0.109301358154007</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3061190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3023466</v>
+        <v>3026960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3094062</v>
+        <v>3093753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9063163705230957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.895147348300009</v>
+        <v>0.8961818786456361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9160484901335693</v>
+        <v>0.9159571027646836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2987</v>
@@ -3701,19 +3701,19 @@
         <v>3142149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3101181</v>
+        <v>3100217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3181119</v>
+        <v>3179303</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8895980195977007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8779991886563927</v>
+        <v>0.8777261848039468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.900631210484373</v>
+        <v>0.9001168923192643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5887</v>
@@ -3722,19 +3722,19 @@
         <v>6203340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6153616</v>
+        <v>6154476</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6256921</v>
+        <v>6254533</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8977703064728798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8905741167836196</v>
+        <v>0.8906986418459929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9055247423786283</v>
+        <v>0.905179216648529</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>127900</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109929</v>
+        <v>111180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145366</v>
+        <v>145666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2214550339591095</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1903401306510838</v>
+        <v>0.1925058885640336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2516971833104173</v>
+        <v>0.2522163177625737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>469</v>
@@ -4086,19 +4086,19 @@
         <v>250670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231243</v>
+        <v>230257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270812</v>
+        <v>269581</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3056522752629007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2819631875104408</v>
+        <v>0.280761405335883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3302124216987569</v>
+        <v>0.328710977798775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>656</v>
@@ -4107,19 +4107,19 @@
         <v>378570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>350696</v>
+        <v>350468</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>405497</v>
+        <v>404720</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2708601855569361</v>
+        <v>0.270860185556936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2509167075186488</v>
+        <v>0.2507537747920021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2901258483574612</v>
+        <v>0.2895700123635087</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>449642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432176</v>
+        <v>431876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467613</v>
+        <v>466362</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7785449660408904</v>
+        <v>0.7785449660408903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7483028166895827</v>
+        <v>0.7477836822374274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8096598693489165</v>
+        <v>0.8074941114359666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>955</v>
@@ -4157,19 +4157,19 @@
         <v>569446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>549304</v>
+        <v>550535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>588873</v>
+        <v>589859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6943477247370992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6697875783012432</v>
+        <v>0.6712890222012249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7180368124895596</v>
+        <v>0.719238594664117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1458</v>
@@ -4178,19 +4178,19 @@
         <v>1019088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>992161</v>
+        <v>992938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1046962</v>
+        <v>1047190</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7291398144430641</v>
+        <v>0.729139814443064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7098741516425388</v>
+        <v>0.7104299876364909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7490832924813514</v>
+        <v>0.7492462252079979</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>230825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>205593</v>
+        <v>202040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263596</v>
+        <v>259922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1034829125836998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0921706780898404</v>
+        <v>0.09057810904429867</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1181743818133998</v>
+        <v>0.1165272105698588</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>364</v>
@@ -4303,19 +4303,19 @@
         <v>199857</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179405</v>
+        <v>179403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>220141</v>
+        <v>220529</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09206977676953593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08264826079667323</v>
+        <v>0.08264725059385017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1014143560574137</v>
+        <v>0.1015930170531963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>647</v>
@@ -4324,19 +4324,19 @@
         <v>430682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>396090</v>
+        <v>398358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>462977</v>
+        <v>463689</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09785395630470313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08999436577121424</v>
+        <v>0.09050971253306749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1051915238401092</v>
+        <v>0.1053533549407273</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1999741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1966970</v>
+        <v>1970644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2024973</v>
+        <v>2028526</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8965170874163002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8818256181866002</v>
+        <v>0.8834727894301412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9078293219101596</v>
+        <v>0.9094218909557013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2556</v>
@@ -4374,19 +4374,19 @@
         <v>1970850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1950566</v>
+        <v>1950178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1991302</v>
+        <v>1991304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.907930223230464</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8985856439425862</v>
+        <v>0.8984069829468038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9173517392033268</v>
+        <v>0.9173527494061501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4265</v>
@@ -4395,19 +4395,19 @@
         <v>3970592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3938297</v>
+        <v>3937585</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4005184</v>
+        <v>4002916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9021460436952969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8948084761598906</v>
+        <v>0.8946466450592725</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9100056342287859</v>
+        <v>0.9094902874669322</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>64160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51766</v>
+        <v>51150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79816</v>
+        <v>79018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09016531427589115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07274775379007241</v>
+        <v>0.07188174885396281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1121658330418715</v>
+        <v>0.111045272523663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -4520,19 +4520,19 @@
         <v>67802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56434</v>
+        <v>55837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81102</v>
+        <v>81788</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09226372745037031</v>
+        <v>0.09226372745037033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07679434130923365</v>
+        <v>0.07598197271029489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1103613231997561</v>
+        <v>0.1112952640007478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -4541,19 +4541,19 @@
         <v>131963</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114214</v>
+        <v>115062</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151330</v>
+        <v>154081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0912314146663912</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07896049572644737</v>
+        <v>0.07954704720553236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1046207598966243</v>
+        <v>0.1065222687487396</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>647427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>631771</v>
+        <v>632569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659821</v>
+        <v>660437</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9098346857241089</v>
+        <v>0.9098346857241087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8878341669581291</v>
+        <v>0.8889547274763369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9272522462099277</v>
+        <v>0.9281182511460369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>893</v>
@@ -4591,19 +4591,19 @@
         <v>667075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653775</v>
+        <v>653089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>678443</v>
+        <v>679040</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9077362725496296</v>
+        <v>0.9077362725496295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8896386768002441</v>
+        <v>0.8887047359992521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9232056586907663</v>
+        <v>0.9240180272897053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1493</v>
@@ -4612,19 +4612,19 @@
         <v>1314501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1295134</v>
+        <v>1292383</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1332250</v>
+        <v>1331402</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9087685853336089</v>
+        <v>0.9087685853336087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8953792401033756</v>
+        <v>0.8934777312512604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9210395042735524</v>
+        <v>0.9204529527944676</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>422886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>387870</v>
+        <v>386995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>457567</v>
+        <v>459260</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.120148337342739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1101997476314564</v>
+        <v>0.1099512578655181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1300020173314311</v>
+        <v>0.1304829050047901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>944</v>
@@ -4737,19 +4737,19 @@
         <v>518329</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>483128</v>
+        <v>486680</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>550909</v>
+        <v>550807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1391226576259657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1296742874168542</v>
+        <v>0.1306276702825075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1478673362781264</v>
+        <v>0.1478398833789381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1495</v>
@@ -4758,19 +4758,19 @@
         <v>941215</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>892803</v>
+        <v>891722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>988680</v>
+        <v>992355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1299052417272989</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1232234794406328</v>
+        <v>0.1230743339122833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1364562637159295</v>
+        <v>0.1369635873771755</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3096809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3062128</v>
+        <v>3060435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3131825</v>
+        <v>3132700</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8798516626572609</v>
+        <v>0.879851662657261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8699979826685689</v>
+        <v>0.8695170949952098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8898002523685435</v>
+        <v>0.8900487421344819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4404</v>
@@ -4808,19 +4808,19 @@
         <v>3207372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3174792</v>
+        <v>3174894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3242573</v>
+        <v>3239021</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8608773423740343</v>
+        <v>0.8608773423740345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8521326637218737</v>
+        <v>0.8521601166210612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8703257125831465</v>
+        <v>0.8693723297174923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7216</v>
@@ -4829,19 +4829,19 @@
         <v>6304181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6256716</v>
+        <v>6253041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6352593</v>
+        <v>6353674</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8700947582727011</v>
+        <v>0.8700947582727012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8635437362840704</v>
+        <v>0.8630364126228245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8767765205593672</v>
+        <v>0.8769256660877166</v>
       </c>
     </row>
     <row r="15">
